--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -634,6 +634,88 @@
       </c>
       <c r="Z2" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-04-22 03:40:56</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>158.5074788447775</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>122</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>55.16863823451238</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.281514159450075</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -716,6 +716,252 @@
       </c>
       <c r="Z3" t="n">
         <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-04-25 02:55:38</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>165.1523857402619</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>99</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:11:57</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>156.198084891765</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.83971916235501</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88.45893249154496</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>99</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.170345670756165</v>
+      </c>
+      <c r="S5" t="n">
+        <v>66.88387837723913</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>74.2625201698808</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-04-25 03:29:15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>183.4750607850399</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>88.76620512013839</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21.63499986473068</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>70.64361983501769</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -962,6 +962,170 @@
       </c>
       <c r="Z6" t="n">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-04-26 01:24:04</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.442328691563048</v>
+      </c>
+      <c r="G7" t="n">
+        <v>146.0128203052343</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.79305429126483</v>
+      </c>
+      <c r="J7" t="n">
+        <v>121.9727396430722</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>99</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.733946741995356</v>
+      </c>
+      <c r="S7" t="n">
+        <v>47.01184786472358</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-04-26 02:10:39</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>153.7038194877213</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -1126,6 +1126,252 @@
       </c>
       <c r="Z8" t="n">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:21:17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3477873858419884</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.51000314692634</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>149.1230876059873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>107.8724991974387</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>88.35714404182318</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.31246629436948</v>
+      </c>
+      <c r="S9" t="n">
+        <v>67.03205644535416</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-04-27 00:35:53</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1421648891084951</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.91924435241497</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.026941567127329</v>
+      </c>
+      <c r="G10" t="n">
+        <v>192.936436144369</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21.29392353825455</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>80.08379660285138</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-04-27 01:00:19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.1415269266585</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>91.28583055637539</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.781549271835371</v>
+      </c>
+      <c r="S11" t="n">
+        <v>41.9983815146152</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1668818965652711</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.3926006293956</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -1372,6 +1372,88 @@
       </c>
       <c r="Z11" t="n">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:07:57</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183.4777183279618</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>96.39432327612442</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.291085644419764</v>
+      </c>
+      <c r="S12" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -1454,6 +1454,1400 @@
       </c>
       <c r="Z12" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:14:19</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>122.7709869026316</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>99</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>636.7755506510081</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>42.75492277511806</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-05-04 23:28:35</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>161.6570615474115</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.901460759122173</v>
+      </c>
+      <c r="J14" t="n">
+        <v>107.1246556266433</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:17:45</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.742929741501675</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15.270499627938</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>153.2384234699288</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>99</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>55.94260280198942</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:31:02</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.06686842910916</v>
+      </c>
+      <c r="G16" t="n">
+        <v>161.267327193557</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>37.30078846035763</v>
+      </c>
+      <c r="J16" t="n">
+        <v>92.32959154651824</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>99</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>14.69413672861144</v>
+      </c>
+      <c r="S16" t="n">
+        <v>63.8958871267028</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-05-05 21:58:22</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.3244853249739</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>159.6055439256299</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>87.73442803033284</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:28:33</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15.19206530395938</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>156.8066957238435</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7502779849364369</v>
+      </c>
+      <c r="M18" t="n">
+        <v>95.77682467105157</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-05-05 22:57:15</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.393122876789649</v>
+      </c>
+      <c r="G19" t="n">
+        <v>157.642494173169</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.407999906494019</v>
+      </c>
+      <c r="M19" t="n">
+        <v>99</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.128956724196157</v>
+      </c>
+      <c r="S19" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:22:38</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.75207605865473</v>
+      </c>
+      <c r="G20" t="n">
+        <v>134.1768172362003</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>99</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.215341961097751</v>
+      </c>
+      <c r="S20" t="n">
+        <v>48.62268475491815</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-05-05 23:57:42</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14.05003581398997</v>
+      </c>
+      <c r="J21" t="n">
+        <v>119.3820106951247</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>97.17502617909237</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.987217479852202</v>
+      </c>
+      <c r="S21" t="n">
+        <v>39.93545310706226</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:12:46</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5893081218848815</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.69911570405513</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28.20774554502977</v>
+      </c>
+      <c r="G22" t="n">
+        <v>170.0996572842632</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>99</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8669773804474215</v>
+      </c>
+      <c r="S22" t="n">
+        <v>37.48731001932047</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:33:29</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.59506079453647</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>41.7788224662049</v>
+      </c>
+      <c r="G23" t="n">
+        <v>130.8580616697448</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>90.48206444267937</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:53:06</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.176814288531038</v>
+      </c>
+      <c r="J24" t="n">
+        <v>103.7080484489755</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>86.45074213582477</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:08:43</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12.50807453313416</v>
+      </c>
+      <c r="G25" t="n">
+        <v>155.8058759591471</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>99</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.245081056712582</v>
+      </c>
+      <c r="S25" t="n">
+        <v>45.89635481164512</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:30:44</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>69.0904111293107</v>
+      </c>
+      <c r="G26" t="n">
+        <v>150.4160190152267</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>90.17285745438058</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>66.2343814637203</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>22.76553043842339</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>69.0771304814899</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-05-06 01:48:27</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>138.2629747965902</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>99</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13.61965579063008</v>
+      </c>
+      <c r="S27" t="n">
+        <v>56.4998185521202</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:17:48</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0406261508771889</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>142.9125654429639</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>99</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.653822270732225</v>
+      </c>
+      <c r="S28" t="n">
+        <v>54.7626741975628</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-05-06 15:45:18</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>150.7149651611633</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>61.23387898349937</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -2847,6 +2847,252 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:21:26</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.46183150046819</v>
+      </c>
+      <c r="G30" t="n">
+        <v>171.4389631838788</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>93.69934520032864</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:26:42</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.86782698010185</v>
+      </c>
+      <c r="G31" t="n">
+        <v>161.6281206140428</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>99</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>778.5130616484513</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4.374829769629535</v>
+      </c>
+      <c r="S31" t="n">
+        <v>41.68457962828172</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-05-06 19:43:11</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.474142518459321</v>
+      </c>
+      <c r="G32" t="n">
+        <v>154.2401404355188</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>99</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
         <v>0.95</v>
       </c>
     </row>

--- a/Working code/Logs/neg_final.xlsx
+++ b/Working code/Logs/neg_final.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
@@ -3093,6 +3093,416 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:47:41</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.221609015420889</v>
+      </c>
+      <c r="G33" t="n">
+        <v>189.6311971059135</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.351444692007522</v>
+      </c>
+      <c r="M33" t="n">
+        <v>73.62339677111429</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-05-06 20:59:55</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4148551851176142</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.014212594512859</v>
+      </c>
+      <c r="G34" t="n">
+        <v>133.7234924830611</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>78.65187918567671</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:26:37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>164.1002937070781</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.671280618373515</v>
+      </c>
+      <c r="J35" t="n">
+        <v>122</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.354929533318432</v>
+      </c>
+      <c r="S35" t="n">
+        <v>58.54311617339661</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:39:28</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>168.1886734760301</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>81.26871728749889</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.297239868562458</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>69.42813461080496</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-05-06 21:51:45</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15.98195801106172</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>150.1893488754999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
         <v>0.95</v>
       </c>
     </row>
